--- a/LAByrinth/maps/pushmap.xlsx
+++ b/LAByrinth/maps/pushmap.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattd_000\Documents\GitHub\LAByrinth\LAByrinth\maps\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="50" windowWidth="20120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -87,6 +92,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -134,7 +142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,7 +177,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,13 +388,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DX60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AV25" sqref="AV25"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CV8" sqref="CV8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -772,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1158,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1544,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1581,8 +1589,8 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
+      <c r="M4" s="4">
+        <v>1</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
@@ -1930,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1967,11 +1975,11 @@
       <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
       </c>
       <c r="O5" s="5">
         <v>0</v>
@@ -2316,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2353,14 +2361,14 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -2702,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2712,44 +2720,44 @@
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
@@ -3088,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -3098,47 +3106,47 @@
       <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0</v>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
@@ -3474,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3484,44 +3492,44 @@
       <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
       </c>
       <c r="Q9" s="5">
         <v>0</v>
@@ -3860,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -3897,14 +3905,14 @@
       <c r="L10" s="5">
         <v>0</v>
       </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
@@ -4246,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -4283,11 +4291,11 @@
       <c r="L11" s="5">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
       </c>
       <c r="O11" s="5">
         <v>0</v>
@@ -4632,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -4669,8 +4677,8 @@
       <c r="L12" s="5">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
+      <c r="M12" s="4">
+        <v>1</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
@@ -5018,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -5790,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -6176,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -6562,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -6948,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -7334,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -7720,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -8106,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -8492,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -8878,7 +8886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -9264,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -9650,7 +9658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -10036,7 +10044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -10422,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -10808,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -11194,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -11580,12 +11588,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
       <c r="D30" s="5">
         <v>0</v>
       </c>
@@ -11962,277 +11974,281 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>1</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
-        <v>0</v>
-      </c>
-      <c r="P31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>0</v>
-      </c>
-      <c r="R31" s="5">
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
-        <v>0</v>
-      </c>
-      <c r="T31" s="5">
-        <v>0</v>
-      </c>
-      <c r="U31" s="5">
-        <v>0</v>
-      </c>
-      <c r="V31" s="5">
-        <v>0</v>
-      </c>
-      <c r="W31" s="5">
-        <v>0</v>
-      </c>
-      <c r="X31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BD31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BE31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BF31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BG31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BH31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BI31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BK31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BL31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BM31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BN31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BP31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BQ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BR31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BS31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BT31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BU31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BV31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BW31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BX31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BY31" s="5">
-        <v>0</v>
-      </c>
-      <c r="BZ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CA31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CB31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CC31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CD31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CE31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CF31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CG31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CH31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CI31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CJ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CK31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CL31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CM31" s="5">
-        <v>0</v>
-      </c>
-      <c r="CN31" s="4">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1</v>
+      </c>
+      <c r="W31" s="2">
+        <v>1</v>
+      </c>
+      <c r="X31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CC31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CD31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CG31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CK31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM31" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN31" s="2">
         <v>1</v>
       </c>
       <c r="CO31" s="4">
@@ -12344,7 +12360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -12730,22 +12746,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="57" spans="81:83" x14ac:dyDescent="0.35">
       <c r="CC57" s="1"/>
       <c r="CD57" s="1"/>
       <c r="CE57" s="1"/>
     </row>
-    <row r="58" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="58" spans="81:83" x14ac:dyDescent="0.35">
       <c r="CC58" s="1"/>
       <c r="CD58" s="1"/>
       <c r="CE58" s="1"/>
     </row>
-    <row r="59" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="59" spans="81:83" x14ac:dyDescent="0.35">
       <c r="CC59" s="1"/>
       <c r="CD59" s="1"/>
       <c r="CE59" s="1"/>
     </row>
-    <row r="60" spans="81:83" x14ac:dyDescent="0.25">
+    <row r="60" spans="81:83" x14ac:dyDescent="0.35">
       <c r="CC60" s="1"/>
       <c r="CD60" s="1"/>
       <c r="CE60" s="1"/>
@@ -12762,7 +12778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12774,7 +12790,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
